--- a/test/sample.xlsx
+++ b/test/sample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samiksha.jangid\Downloads\Rakuten\airflow-demo-dev\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samiksha.jangid\Downloads\Rakuten\airflow-demo-dev\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D21CB-B877-4844-A4A2-24C60AC06D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2D23C2-305D-4353-86EA-2E65DC67A8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32085" yWindow="1410" windowWidth="21600" windowHeight="12645" xr2:uid="{33B203D4-891F-4AC0-B4C0-19B09BD79381}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>№</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>dt3</t>
-  </si>
-  <si>
-    <t>num1</t>
-  </si>
-  <si>
-    <t>num2</t>
   </si>
   <si>
     <t>num3</t>
@@ -633,7 +627,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,31 +665,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>17</v>
@@ -758,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="16">
         <v>0</v>
@@ -844,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
@@ -971,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
@@ -999,7 +989,7 @@
         <v>45728</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9" s="11">
         <v>45808</v>
@@ -1097,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="16">
         <v>0</v>
